--- a/output/fit_clients/fit_round_381.xlsx
+++ b/output/fit_clients/fit_round_381.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2332783558.237423</v>
+        <v>2370080012.471617</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08850981783937251</v>
+        <v>0.07573694527501948</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0363644273551531</v>
+        <v>0.04304575673118342</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1166391819.491745</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1999677582.482408</v>
+        <v>2492162008.794018</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1473118827670435</v>
+        <v>0.1811680637499732</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03403937050111971</v>
+        <v>0.04995048035052294</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>999838831.2685615</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4974142973.278182</v>
+        <v>4246652280.705066</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1575692277258033</v>
+        <v>0.1375326513736899</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03529481323658199</v>
+        <v>0.03063795473413803</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>137</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2487071569.833071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2700427095.927457</v>
+        <v>2953435725.328745</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06848728486645218</v>
+        <v>0.08404271355353896</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03256960710338464</v>
+        <v>0.03370953400802676</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>140</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1350213637.651154</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2106716836.835765</v>
+        <v>2101121958.334576</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1423963367549991</v>
+        <v>0.1313525334274107</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04451403611925375</v>
+        <v>0.05076113882906665</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>71</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1053358436.475395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2908800114.772456</v>
+        <v>2600033567.782767</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07910733888278472</v>
+        <v>0.08504307426257154</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03871578922062804</v>
+        <v>0.03361790552984717</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>120</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1454400031.04175</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3168095665.194942</v>
+        <v>2443989452.700935</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1497914725582302</v>
+        <v>0.1511479724176934</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02472460379735498</v>
+        <v>0.02512073567763748</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>123</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1584047907.304442</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1782326912.849605</v>
+        <v>1728039647.01992</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1688055444302056</v>
+        <v>0.1909929155953972</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03444097277528665</v>
+        <v>0.02778049347562647</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>891163513.2419502</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3808233419.332079</v>
+        <v>5774235310.249474</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1638188707874711</v>
+        <v>0.1971716013792428</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04427829217146406</v>
+        <v>0.05079513739413806</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>160</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1904116716.706511</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2782850564.326329</v>
+        <v>3038662730.213386</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1784022546253174</v>
+        <v>0.1434475944605789</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04412694571325546</v>
+        <v>0.04920772690001168</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>157</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1391425209.948771</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2963627279.943043</v>
+        <v>2766696394.035206</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1633709286866385</v>
+        <v>0.1536661176334253</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05388495539311158</v>
+        <v>0.03582311890506446</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>130</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1481813654.649582</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3595176827.59822</v>
+        <v>3450635159.184242</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08101919370554814</v>
+        <v>0.09880808018591422</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02633704038186211</v>
+        <v>0.02762419745033683</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>128</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1797588489.302327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3564859694.496194</v>
+        <v>3090177117.828757</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1160705670309517</v>
+        <v>0.1247940439484291</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04051037841762629</v>
+        <v>0.03163379822558296</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>122</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1782429840.793709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1608418947.016168</v>
+        <v>1750437585.45981</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08135200195325894</v>
+        <v>0.08411554655717164</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03009834955971683</v>
+        <v>0.03424660273138732</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>804209583.6120492</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1950322395.148742</v>
+        <v>2372908968.153925</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0962122152311836</v>
+        <v>0.08637217897367427</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0345438403037682</v>
+        <v>0.03626289940327398</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>77</v>
-      </c>
-      <c r="J16" t="n">
-        <v>975161277.5212418</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3646433577.437166</v>
+        <v>3501355749.99977</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1198512253714138</v>
+        <v>0.1268841148912078</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03734224893209943</v>
+        <v>0.04087119241258834</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>111</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1823216840.825384</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2982935229.919865</v>
+        <v>3722771517.802067</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1751442825876372</v>
+        <v>0.1505000566029845</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02713216696374415</v>
+        <v>0.02221509926627692</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>124</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1491467646.470483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>890535143.0904185</v>
+        <v>833971918.9142277</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1808521115542465</v>
+        <v>0.1500073222478499</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02727328365284679</v>
+        <v>0.02205155130590258</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>445267574.1872724</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1964888331.754335</v>
+        <v>2443910403.459056</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1257414063530541</v>
+        <v>0.1282565978214068</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03113231679616922</v>
+        <v>0.02817271363616115</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>48</v>
-      </c>
-      <c r="J20" t="n">
-        <v>982444195.9830331</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2524898204.276793</v>
+        <v>1832770025.180549</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09520767373798099</v>
+        <v>0.1016659229160028</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03922474199673161</v>
+        <v>0.04574275360918781</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1262449087.872345</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2783317643.947221</v>
+        <v>2490785017.130334</v>
       </c>
       <c r="F22" t="n">
-        <v>0.120321361665133</v>
+        <v>0.132181616088589</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05375200295149453</v>
+        <v>0.05014425866245555</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>105</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1391658896.494887</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1463436917.071788</v>
+        <v>1155951647.416124</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1259925166230396</v>
+        <v>0.1737440655423152</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05465582821033166</v>
+        <v>0.05309058956741435</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>731718450.6534642</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2868300531.470842</v>
+        <v>2764571675.298392</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1188555021518558</v>
+        <v>0.1419919109223102</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02509148897316932</v>
+        <v>0.03766851761213798</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>111</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1434150309.840013</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1471473513.525406</v>
+        <v>909284871.3974198</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08828910785585034</v>
+        <v>0.0819484408772498</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02776808711416474</v>
+        <v>0.02399703066122981</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>735736712.2777548</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>988411065.2983687</v>
+        <v>1036513550.414412</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1163288268639405</v>
+        <v>0.09553029680365298</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03817722677111401</v>
+        <v>0.03135493362653992</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>494205501.9167271</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4515982460.852635</v>
+        <v>3492604808.653811</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1000933213422509</v>
+        <v>0.1128508863897246</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02474442175060592</v>
+        <v>0.02035373472109887</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>87</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2257991214.947334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2673423975.783825</v>
+        <v>3617270138.738781</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1340522983147929</v>
+        <v>0.1465011441665627</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04642669621997566</v>
+        <v>0.0377572807607381</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>123</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1336711970.763116</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3912306149.422639</v>
+        <v>5623157075.849271</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1071622167558422</v>
+        <v>0.1348031176266354</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03081775104710224</v>
+        <v>0.03110992222076401</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>168</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1956153097.650497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1660954025.225512</v>
+        <v>1760457981.563424</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1173385989920878</v>
+        <v>0.09300616803567466</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02887548649840137</v>
+        <v>0.03692998915319417</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>830477011.4441766</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1352078202.314937</v>
+        <v>1107536863.729291</v>
       </c>
       <c r="F31" t="n">
-        <v>0.110839506977116</v>
+        <v>0.1007571411999753</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04356941295441751</v>
+        <v>0.0424463675237105</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>676039016.8377377</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1648343025.032178</v>
+        <v>1197004049.242198</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08199560449495558</v>
+        <v>0.07698133311180294</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02997340245354661</v>
+        <v>0.02403913962733177</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>824171611.5845923</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3008944600.576341</v>
+        <v>2334550235.129675</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1261901178635922</v>
+        <v>0.1949344597759974</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04574074685055732</v>
+        <v>0.04218026430657926</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>114</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1504472295.156434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1104492988.07247</v>
+        <v>1163199759.428281</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1205295206722713</v>
+        <v>0.1167631115398916</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01875362016915063</v>
+        <v>0.02538029020797248</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>552246514.7459605</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1072920461.951809</v>
+        <v>1244859616.368512</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1150313363902657</v>
+        <v>0.08912511335242423</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02929565742056174</v>
+        <v>0.04499292245726294</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>536460233.5661073</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3112034002.951542</v>
+        <v>3090370167.138262</v>
       </c>
       <c r="F36" t="n">
-        <v>0.158598702157968</v>
+        <v>0.1728673401098576</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02448071169718066</v>
+        <v>0.02122647843330964</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>95</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1556016974.402505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1864684672.632433</v>
+        <v>2544229705.201672</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08966883199213536</v>
+        <v>0.1025579144647827</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03728929080351519</v>
+        <v>0.03924653853490465</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>101</v>
-      </c>
-      <c r="J37" t="n">
-        <v>932342344.9911177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1783611482.061144</v>
+        <v>1891793822.132553</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1202629513011609</v>
+        <v>0.09342932093279904</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03179358147152594</v>
+        <v>0.03862959457480176</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>891805750.2366161</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2199856800.985517</v>
+        <v>2139112157.222035</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1429014905389618</v>
+        <v>0.1903380606248002</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02769521351250043</v>
+        <v>0.02455382558004688</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1099928364.696395</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1381338983.168725</v>
+        <v>1577242467.56847</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1385246822502923</v>
+        <v>0.1454169514416518</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04071994263439688</v>
+        <v>0.05162564122219352</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>690669487.5045698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2363871780.528944</v>
+        <v>2761635844.89985</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1115877492387796</v>
+        <v>0.1549867215835904</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03110181717290658</v>
+        <v>0.0422641637844865</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>98</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1181935928.92792</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3205643264.352467</v>
+        <v>3815614927.329171</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08071299447296781</v>
+        <v>0.1008174898007337</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02882227865130364</v>
+        <v>0.03165225302169057</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1602821606.769475</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2408388343.711407</v>
+        <v>2239742419.455287</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2034665265672019</v>
+        <v>0.1959984965960934</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01572611901309994</v>
+        <v>0.01838966989539589</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>133</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1204194229.752383</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1814502863.162977</v>
+        <v>1790078213.843162</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07218544728793201</v>
+        <v>0.06907687221044147</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03465469191914785</v>
+        <v>0.03640459598165135</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>907251500.9153161</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2456014298.920897</v>
+        <v>2366355084.013168</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1738945787300124</v>
+        <v>0.173110154445635</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04799547929478878</v>
+        <v>0.03625263877242373</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1228007186.276245</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4367549497.41407</v>
+        <v>4239442618.402568</v>
       </c>
       <c r="F46" t="n">
-        <v>0.134693284584754</v>
+        <v>0.1382866296203124</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03839267975549646</v>
+        <v>0.05254013579345764</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>135</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2183774739.28347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5182369569.463064</v>
+        <v>3937773717.525228</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1678609438746162</v>
+        <v>0.1496527710758905</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03917788286817016</v>
+        <v>0.05672665376182024</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>102</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2591184850.880457</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2881133089.576576</v>
+        <v>3004748609.183077</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0668539808564603</v>
+        <v>0.07766437136150695</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0259568497267299</v>
+        <v>0.03167309487172496</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>126</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1440566644.230513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1897788557.866982</v>
+        <v>1986726752.998676</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1380996014606997</v>
+        <v>0.192392274736299</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03265047909082904</v>
+        <v>0.03009567931135272</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>948894249.1276315</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3269215320.120886</v>
+        <v>4025725063.402872</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1763471512666933</v>
+        <v>0.1649192172673757</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03345203074811164</v>
+        <v>0.03244242462099309</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>130</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1634607700.742592</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1469515570.377928</v>
+        <v>1127686441.889586</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1761681520454042</v>
+        <v>0.1958551731254321</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03334805567431889</v>
+        <v>0.04084843526914782</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>734757793.0797658</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3770790979.511427</v>
+        <v>5001906978.110658</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1392600616599104</v>
+        <v>0.1242507764053856</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0412802332331452</v>
+        <v>0.04115234737501278</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>157</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1885395559.738974</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2596505476.131129</v>
+        <v>3524585990.990003</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1349081526767383</v>
+        <v>0.158786960616206</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02253732914994101</v>
+        <v>0.02563567313390044</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>109</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1298252798.335935</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4574162849.460201</v>
+        <v>3314081283.278014</v>
       </c>
       <c r="F54" t="n">
-        <v>0.162349408208999</v>
+        <v>0.1503118994129083</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04210060511557758</v>
+        <v>0.03588857161544783</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>123</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2287081533.915723</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4503168425.234303</v>
+        <v>3397330880.733649</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1399034040007539</v>
+        <v>0.1537097973343544</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02128013217779725</v>
+        <v>0.02075644390763599</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2251584209.770961</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1862005696.675969</v>
+        <v>1835067195.190188</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1148440778572776</v>
+        <v>0.1309449797420762</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05694871702371148</v>
+        <v>0.04498022873943428</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>931002836.9796585</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3950745665.333049</v>
+        <v>3173236971.219493</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1143904526139626</v>
+        <v>0.1402827831057298</v>
       </c>
       <c r="G57" t="n">
-        <v>0.027530521218248</v>
+        <v>0.01696167804485569</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>121</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1975372916.912433</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1832399571.502976</v>
+        <v>1394194299.998372</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1896420572224685</v>
+        <v>0.2003001642811564</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02968219082061677</v>
+        <v>0.02483861678667931</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>916199786.5620443</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5205437915.133501</v>
+        <v>3574269650.892325</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1129686983034607</v>
+        <v>0.08721851963748052</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03217370128198759</v>
+        <v>0.04037745560540931</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2602718875.384859</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3214029305.745907</v>
+        <v>3740409121.424896</v>
       </c>
       <c r="F60" t="n">
-        <v>0.20299268511902</v>
+        <v>0.1372375655781089</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02679255050005325</v>
+        <v>0.03315050201118057</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1607014745.689192</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2931952864.636136</v>
+        <v>3328528222.758782</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1573192300975192</v>
+        <v>0.1427755751927977</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02873912341302444</v>
+        <v>0.02272358048839614</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>131</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1465976419.215999</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1294876013.357481</v>
+        <v>2009610371.590663</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1509157911297588</v>
+        <v>0.1818720646395411</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04828964200672502</v>
+        <v>0.03799197434228772</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>647437958.9872825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3443509045.494503</v>
+        <v>4897614157.291028</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07150921624941423</v>
+        <v>0.07311838907419622</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03082729654949865</v>
+        <v>0.04163839591676303</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>108</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1721754609.961313</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4829660067.717188</v>
+        <v>3532055161.654503</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1754697914296006</v>
+        <v>0.125977751450429</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02685604826938966</v>
+        <v>0.03502228400899549</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>118</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2414830128.078342</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4361093145.536213</v>
+        <v>3692897690.504631</v>
       </c>
       <c r="F65" t="n">
-        <v>0.125698017799775</v>
+        <v>0.1599858630895344</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02188081233409925</v>
+        <v>0.02258024599066434</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>136</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2180546569.823997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4989385753.662414</v>
+        <v>4572376394.402032</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1503511439757582</v>
+        <v>0.1099568785133044</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03275834758194311</v>
+        <v>0.03942011532284799</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>111</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2494692903.471755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3368216074.867675</v>
+        <v>3349245256.501571</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08150359227583935</v>
+        <v>0.06628199331733084</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0455691480300224</v>
+        <v>0.04761635397680839</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>122</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1684108024.55481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4661471233.486376</v>
+        <v>4384161041.68464</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1403053455540523</v>
+        <v>0.1077583942607642</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03721444681700486</v>
+        <v>0.04381447256316295</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>121</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2330735652.639687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1711281857.007592</v>
+        <v>1989710034.186719</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1138031838870423</v>
+        <v>0.1502571384496414</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04412680169036754</v>
+        <v>0.04013873221821147</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>855640896.1218537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3637769742.13246</v>
+        <v>3718774885.690401</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09732255951713532</v>
+        <v>0.09784588864635403</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03266726567958909</v>
+        <v>0.03700177513800476</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>108</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1818884889.551632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4465719243.050751</v>
+        <v>4403260911.229568</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1637413565145701</v>
+        <v>0.154974169705335</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02210381310912016</v>
+        <v>0.02688024744140875</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>138</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2232859687.331405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2034783439.828066</v>
+        <v>1538696438.574378</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09707189648926261</v>
+        <v>0.1040286033037546</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03660056666424591</v>
+        <v>0.04984484911053406</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1017391660.678866</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3043724631.416544</v>
+        <v>3351793359.18397</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0920555538739226</v>
+        <v>0.09042298956884433</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03582506142677228</v>
+        <v>0.05180243817543146</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>145</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1521862307.680077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3743940066.449696</v>
+        <v>2707978641.805522</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1682090446068907</v>
+        <v>0.1199006907977899</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03300002421549643</v>
+        <v>0.02245951418899333</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>129</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1871970034.333411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2396599738.085285</v>
+        <v>2221491671.426684</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1420821032479789</v>
+        <v>0.129546902689953</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03580754522451964</v>
+        <v>0.03056868389944074</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1198299796.028265</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3432864219.262802</v>
+        <v>4492837494.957438</v>
       </c>
       <c r="F76" t="n">
-        <v>0.116015123702567</v>
+        <v>0.09251089532133733</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02133737632911002</v>
+        <v>0.03133345497505721</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1716432070.553846</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1925031490.938845</v>
+        <v>2116920692.492811</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1440710498726686</v>
+        <v>0.1485060967186957</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02569132692440435</v>
+        <v>0.03131135123968098</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>962515795.9004304</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3776469763.739343</v>
+        <v>3268973808.97867</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1284903258955554</v>
+        <v>0.1089701245772033</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03937445896347235</v>
+        <v>0.05558763786844913</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>132</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1888234863.606313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1181455767.626001</v>
+        <v>1229232200.858751</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1718170323072146</v>
+        <v>0.113622022422444</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02677724056491678</v>
+        <v>0.03517856713460865</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>590727862.3231298</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4462611262.393875</v>
+        <v>5543422672.338651</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07839329921108086</v>
+        <v>0.07559869660211066</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03167494875955534</v>
+        <v>0.02607711831682785</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2231305653.674735</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5045548210.330567</v>
+        <v>4762444201.013878</v>
       </c>
       <c r="F81" t="n">
-        <v>0.128428671037183</v>
+        <v>0.1310516555706825</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0317761154600408</v>
+        <v>0.02257054893418119</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2522774107.190237</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5449407379.665537</v>
+        <v>4835945749.191554</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2011691849140258</v>
+        <v>0.1451345536341641</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02089068398429995</v>
+        <v>0.01842422575078409</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>135</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2724703648.715661</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2091854675.65591</v>
+        <v>2249489254.633185</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1299503797953876</v>
+        <v>0.1315586891786378</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03068269809008642</v>
+        <v>0.02879357372635175</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1045927334.602608</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1750834015.092068</v>
+        <v>1566963400.492573</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08201528402151052</v>
+        <v>0.09862346482671898</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04418565376276476</v>
+        <v>0.03205949873487821</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>875417049.1022124</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3045712022.652798</v>
+        <v>2687394089.604121</v>
       </c>
       <c r="F85" t="n">
-        <v>0.159378314292476</v>
+        <v>0.1302380120727555</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0442882498412093</v>
+        <v>0.04014080910991838</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>143</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1522856076.524675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2725126515.944774</v>
+        <v>1849986829.249845</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1322410822414588</v>
+        <v>0.1158548815496112</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01980225706475893</v>
+        <v>0.02404557778915761</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1362563386.450301</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1183297934.474982</v>
+        <v>1217948046.123543</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1887673285866066</v>
+        <v>0.1625395756105339</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04400029060764495</v>
+        <v>0.03591745677662037</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>591649018.5455278</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2685109530.72925</v>
+        <v>3069781607.566186</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1646258518470033</v>
+        <v>0.1320358791423131</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03529598354743605</v>
+        <v>0.03778800962238801</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>150</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1342554764.716736</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3164121576.164441</v>
+        <v>3083190046.086143</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1331660751196561</v>
+        <v>0.1186039777095788</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03051560862359582</v>
+        <v>0.02710318882085339</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>129</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1582060814.173902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1305836093.285602</v>
+        <v>1923407809.087603</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1253849743251191</v>
+        <v>0.1328410362361144</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03993460393436002</v>
+        <v>0.03905455819749351</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>652917989.8805898</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2005588102.615382</v>
+        <v>1365844771.148401</v>
       </c>
       <c r="F91" t="n">
-        <v>0.137889162483627</v>
+        <v>0.1472141138323832</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05518139234216742</v>
+        <v>0.05443505708115191</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1002794022.84435</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2874453469.126046</v>
+        <v>2619015733.046821</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1020958434581249</v>
+        <v>0.09919383207257475</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04747746529713246</v>
+        <v>0.04739156640276061</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>108</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1437226746.82461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3111823762.367992</v>
+        <v>3145965565.101414</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1057858234872546</v>
+        <v>0.1093923309990052</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04928777866961099</v>
+        <v>0.05482377695996236</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1555911939.257156</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2319254197.439007</v>
+        <v>1937078503.750014</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1441179154470217</v>
+        <v>0.1342342674616987</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03219050555103931</v>
+        <v>0.04218264220138999</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
         <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1159627138.623601</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3093531963.831332</v>
+        <v>2254766209.985212</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09673329108918209</v>
+        <v>0.1126982933879126</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0330593930971311</v>
+        <v>0.03372823876577579</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>93</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1546765974.862748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2180557974.835583</v>
+        <v>1494476059.969418</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1173923601555432</v>
+        <v>0.1399614784339356</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04286775651542111</v>
+        <v>0.03051597708916269</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1090278955.152142</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4579436100.617718</v>
+        <v>4378412633.454314</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1190163948263051</v>
+        <v>0.1331196856060622</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0227896288151743</v>
+        <v>0.02132207154518223</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>122</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2289718153.296089</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3121397172.224208</v>
+        <v>3349350655.636414</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08963712384117202</v>
+        <v>0.1195494802041437</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03198074733360073</v>
+        <v>0.02398250715505431</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>100</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1560698579.03481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3337381008.798526</v>
+        <v>2404449629.000287</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09442466181539781</v>
+        <v>0.128398138664666</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03457261470660743</v>
+        <v>0.02578680506122485</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>120</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1668690514.811345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4041772819.086917</v>
+        <v>4428792069.112938</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1583035284817818</v>
+        <v>0.1242011926602638</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02106731364015216</v>
+        <v>0.02480211849857874</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>116</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2020886483.574107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2779955675.099299</v>
+        <v>2318460062.092122</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1747006397284004</v>
+        <v>0.1941340975133333</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04190981366747042</v>
+        <v>0.05487631341154593</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>155</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1389977897.580949</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_381.xlsx
+++ b/output/fit_clients/fit_round_381.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2370080012.471617</v>
+        <v>2051677843.133572</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07573694527501948</v>
+        <v>0.08941469628377141</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04304575673118342</v>
+        <v>0.04465305085487728</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2492162008.794018</v>
+        <v>1884302490.618477</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1811680637499732</v>
+        <v>0.1677205024566472</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04995048035052294</v>
+        <v>0.04647909075045144</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4246652280.705066</v>
+        <v>4902013019.399769</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1375326513736899</v>
+        <v>0.1576301755902501</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03063795473413803</v>
+        <v>0.03029640932978026</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2953435725.328745</v>
+        <v>2821371248.776939</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08404271355353896</v>
+        <v>0.07848602297942871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03370953400802676</v>
+        <v>0.03575507387853865</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2101121958.334576</v>
+        <v>1815473251.885128</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1313525334274107</v>
+        <v>0.1429237815288574</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05076113882906665</v>
+        <v>0.04865808873290793</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2600033567.782767</v>
+        <v>2232617908.752972</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08504307426257154</v>
+        <v>0.0897434008790516</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03361790552984717</v>
+        <v>0.04394767058928983</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2443989452.700935</v>
+        <v>2950261216.729488</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1511479724176934</v>
+        <v>0.1907643641824109</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02512073567763748</v>
+        <v>0.03280892743167062</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1728039647.01992</v>
+        <v>1710768715.068429</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1909929155953972</v>
+        <v>0.1419236244435076</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02778049347562647</v>
+        <v>0.02806364716602824</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5774235310.249474</v>
+        <v>4782275992.415112</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1971716013792428</v>
+        <v>0.2103134747075151</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05079513739413806</v>
+        <v>0.04603111924286155</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3038662730.213386</v>
+        <v>3216441752.957932</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1434475944605789</v>
+        <v>0.1638209658354065</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04920772690001168</v>
+        <v>0.04789365363292372</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2766696394.035206</v>
+        <v>2351491669.79182</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1536661176334253</v>
+        <v>0.1525337830713469</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03582311890506446</v>
+        <v>0.03900748102336355</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3450635159.184242</v>
+        <v>3477440430.882254</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09880808018591422</v>
+        <v>0.08287274606147448</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02762419745033683</v>
+        <v>0.021654737174206</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3090177117.828757</v>
+        <v>2383912811.942924</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1247940439484291</v>
+        <v>0.1358046749270977</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03163379822558296</v>
+        <v>0.04290363381346657</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1750437585.45981</v>
+        <v>1145737373.983426</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08411554655717164</v>
+        <v>0.06843934151807278</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03424660273138732</v>
+        <v>0.04427230610634656</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2372908968.153925</v>
+        <v>1917417796.600887</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08637217897367427</v>
+        <v>0.1065832026964569</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03626289940327398</v>
+        <v>0.04615879392781358</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3501355749.99977</v>
+        <v>3659595482.145528</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1268841148912078</v>
+        <v>0.1548357602977467</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04087119241258834</v>
+        <v>0.03238555929154714</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3722771517.802067</v>
+        <v>2523866376.255549</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1505000566029845</v>
+        <v>0.1683960966566715</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02221509926627692</v>
+        <v>0.03024537417573483</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>833971918.9142277</v>
+        <v>1197698584.915854</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1500073222478499</v>
+        <v>0.1328022916436742</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02205155130590258</v>
+        <v>0.01708015006727722</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2443910403.459056</v>
+        <v>1947476198.942195</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1282565978214068</v>
+        <v>0.1439166407514209</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02817271363616115</v>
+        <v>0.02649084818311125</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1832770025.180549</v>
+        <v>1760887472.752497</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1016659229160028</v>
+        <v>0.08669113897760501</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04574275360918781</v>
+        <v>0.04521155559773483</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2490785017.130334</v>
+        <v>3244906319.415213</v>
       </c>
       <c r="F22" t="n">
-        <v>0.132181616088589</v>
+        <v>0.08921726620045937</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05014425866245555</v>
+        <v>0.04709510842770071</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1155951647.416124</v>
+        <v>1230092506.770653</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1737440655423152</v>
+        <v>0.182943399697386</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05309058956741435</v>
+        <v>0.05411085868924894</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2764571675.298392</v>
+        <v>2610026985.133075</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1419919109223102</v>
+        <v>0.1354585860451227</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03766851761213798</v>
+        <v>0.02432566256423598</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>909284871.3974198</v>
+        <v>1271267977.189879</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0819484408772498</v>
+        <v>0.07827081769397881</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02399703066122981</v>
+        <v>0.02300178679648919</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1036513550.414412</v>
+        <v>1038841608.140554</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09553029680365298</v>
+        <v>0.1002383461334407</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03135493362653992</v>
+        <v>0.03296633371902854</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3492604808.653811</v>
+        <v>3137204704.963052</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1128508863897246</v>
+        <v>0.09928051430190567</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02035373472109887</v>
+        <v>0.0213862492385764</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3617270138.738781</v>
+        <v>3076905351.135962</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1465011441665627</v>
+        <v>0.1520067389489473</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0377572807607381</v>
+        <v>0.04273237777443895</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5623157075.849271</v>
+        <v>4287761643.314311</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1348031176266354</v>
+        <v>0.1221775701819132</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03110992222076401</v>
+        <v>0.04383406208824593</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1760457981.563424</v>
+        <v>2179306192.276126</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09300616803567466</v>
+        <v>0.08458340534172137</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03692998915319417</v>
+        <v>0.0333192508972887</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1107536863.729291</v>
+        <v>1351749534.384173</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1007571411999753</v>
+        <v>0.07694605564117056</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0424463675237105</v>
+        <v>0.048569498216869</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1197004049.242198</v>
+        <v>1374114190.353798</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07698133311180294</v>
+        <v>0.1026423582296205</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02403913962733177</v>
+        <v>0.03572869497116404</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2334550235.129675</v>
+        <v>2290290147.37755</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1949344597759974</v>
+        <v>0.1322057695930194</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04218026430657926</v>
+        <v>0.05622703242892807</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1163199759.428281</v>
+        <v>1349958156.93196</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1167631115398916</v>
+        <v>0.07953292220109602</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02538029020797248</v>
+        <v>0.02250833154162644</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1244859616.368512</v>
+        <v>1232107983.932842</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08912511335242423</v>
+        <v>0.101204935585185</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04499292245726294</v>
+        <v>0.0346171087413971</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3090370167.138262</v>
+        <v>2808669948.925546</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1728673401098576</v>
+        <v>0.1717081600873014</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02122647843330964</v>
+        <v>0.02836273173395239</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2544229705.201672</v>
+        <v>2878305422.599355</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1025579144647827</v>
+        <v>0.08546689460111674</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03924653853490465</v>
+        <v>0.03487263951031095</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1891793822.132553</v>
+        <v>1624193310.914684</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09342932093279904</v>
+        <v>0.09413498044237444</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03862959457480176</v>
+        <v>0.02708817228444202</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2139112157.222035</v>
+        <v>1623641102.116786</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1903380606248002</v>
+        <v>0.1657110355990381</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02455382558004688</v>
+        <v>0.02253461126875713</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1577242467.56847</v>
+        <v>1719435535.686057</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1454169514416518</v>
+        <v>0.132295393093165</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05162564122219352</v>
+        <v>0.0515240296830637</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2761635844.89985</v>
+        <v>2312468306.210624</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1549867215835904</v>
+        <v>0.1401157586443972</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0422641637844865</v>
+        <v>0.03402442552797598</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3815614927.329171</v>
+        <v>3163585465.01814</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1008174898007337</v>
+        <v>0.1105026967877329</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03165225302169057</v>
+        <v>0.04225471892691575</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2239742419.455287</v>
+        <v>2281539224.106477</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1959984965960934</v>
+        <v>0.1246595477224507</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01838966989539589</v>
+        <v>0.023098675978917</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1790078213.843162</v>
+        <v>2111694334.144602</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06907687221044147</v>
+        <v>0.08295217336644985</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03640459598165135</v>
+        <v>0.03547497499016055</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2366355084.013168</v>
+        <v>1846048525.742301</v>
       </c>
       <c r="F45" t="n">
-        <v>0.173110154445635</v>
+        <v>0.1581413817422542</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03625263877242373</v>
+        <v>0.05607146179104233</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4239442618.402568</v>
+        <v>5333671764.874438</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1382866296203124</v>
+        <v>0.1158909303047734</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05254013579345764</v>
+        <v>0.04049226538947376</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3937773717.525228</v>
+        <v>4122210883.219732</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1496527710758905</v>
+        <v>0.2012114415294418</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05672665376182024</v>
+        <v>0.04042681167828304</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3004748609.183077</v>
+        <v>4381347284.254922</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07766437136150695</v>
+        <v>0.08683917462670579</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03167309487172496</v>
+        <v>0.03260820073643132</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1986726752.998676</v>
+        <v>1355238422.801097</v>
       </c>
       <c r="F49" t="n">
-        <v>0.192392274736299</v>
+        <v>0.1261446349029484</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03009567931135272</v>
+        <v>0.03072732291844713</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4025725063.402872</v>
+        <v>2736767794.739964</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1649192172673757</v>
+        <v>0.1125862800642458</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03244242462099309</v>
+        <v>0.05111185289782137</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1127686441.889586</v>
+        <v>1455725658.29788</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1958551731254321</v>
+        <v>0.1391285602879152</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04084843526914782</v>
+        <v>0.04516198230625041</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5001906978.110658</v>
+        <v>3583512823.138733</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1242507764053856</v>
+        <v>0.1102297996327659</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04115234737501278</v>
+        <v>0.03743413826226848</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3524585990.990003</v>
+        <v>3590479349.89887</v>
       </c>
       <c r="F53" t="n">
-        <v>0.158786960616206</v>
+        <v>0.1561680686195621</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02563567313390044</v>
+        <v>0.02333983445402053</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3314081283.278014</v>
+        <v>4389667923.499829</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1503118994129083</v>
+        <v>0.1495109401355921</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03588857161544783</v>
+        <v>0.03297170601878323</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3397330880.733649</v>
+        <v>3840598541.026863</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1537097973343544</v>
+        <v>0.1988655529495345</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02075644390763599</v>
+        <v>0.03130776117411565</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1835067195.190188</v>
+        <v>1673819193.44832</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1309449797420762</v>
+        <v>0.1571065741603358</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04498022873943428</v>
+        <v>0.04766661852679378</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3173236971.219493</v>
+        <v>3069481151.718625</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1402827831057298</v>
+        <v>0.1749402900464266</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01696167804485569</v>
+        <v>0.02432245663034991</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1394194299.998372</v>
+        <v>1833381306.397139</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2003001642811564</v>
+        <v>0.1250940777387351</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02483861678667931</v>
+        <v>0.03229250169033798</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3574269650.892325</v>
+        <v>5215033403.941788</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08721851963748052</v>
+        <v>0.1198168120167536</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04037745560540931</v>
+        <v>0.04855095490945316</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3740409121.424896</v>
+        <v>3680754001.13847</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1372375655781089</v>
+        <v>0.1590957725948879</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03315050201118057</v>
+        <v>0.03192283418937005</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3328528222.758782</v>
+        <v>2991150995.396476</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1427755751927977</v>
+        <v>0.1703246514009421</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02272358048839614</v>
+        <v>0.02906255739000551</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2009610371.590663</v>
+        <v>1595139515.741148</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1818720646395411</v>
+        <v>0.1390385133737579</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03799197434228772</v>
+        <v>0.03448187033878011</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4897614157.291028</v>
+        <v>4094275673.017295</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07311838907419622</v>
+        <v>0.06594641572035741</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04163839591676303</v>
+        <v>0.04366125315578587</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3532055161.654503</v>
+        <v>4692510251.555693</v>
       </c>
       <c r="F64" t="n">
-        <v>0.125977751450429</v>
+        <v>0.1683213758302248</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03502228400899549</v>
+        <v>0.03244739064267723</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3692897690.504631</v>
+        <v>5373595655.027728</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1599858630895344</v>
+        <v>0.1357253467083269</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02258024599066434</v>
+        <v>0.02607326269363989</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4572376394.402032</v>
+        <v>5670106004.698403</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1099568785133044</v>
+        <v>0.1622960538011673</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03942011532284799</v>
+        <v>0.03902454140036223</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3349245256.501571</v>
+        <v>2566471505.453175</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06628199331733084</v>
+        <v>0.06778471319684219</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04761635397680839</v>
+        <v>0.03869216492145676</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4384161041.68464</v>
+        <v>3671433725.82793</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1077583942607642</v>
+        <v>0.1240523831027256</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04381447256316295</v>
+        <v>0.03776221811517885</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1989710034.186719</v>
+        <v>1526557837.984008</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1502571384496414</v>
+        <v>0.1186349697516332</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04013873221821147</v>
+        <v>0.05918531016156595</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3718774885.690401</v>
+        <v>3271795496.100889</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09784588864635403</v>
+        <v>0.07846860387405398</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03700177513800476</v>
+        <v>0.04803941530626227</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4403260911.229568</v>
+        <v>4415084264.048765</v>
       </c>
       <c r="F71" t="n">
-        <v>0.154974169705335</v>
+        <v>0.1458224913617296</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02688024744140875</v>
+        <v>0.03214338025574567</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1538696438.574378</v>
+        <v>2056707178.386757</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1040286033037546</v>
+        <v>0.07402711994016985</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04984484911053406</v>
+        <v>0.04849412510564401</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3351793359.18397</v>
+        <v>2985326906.339224</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09042298956884433</v>
+        <v>0.106507506284368</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05180243817543146</v>
+        <v>0.03687845215476326</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2707978641.805522</v>
+        <v>2710740419.394347</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1199006907977899</v>
+        <v>0.1487047121861069</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02245951418899333</v>
+        <v>0.02773368660800829</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2221491671.426684</v>
+        <v>1784450509.295684</v>
       </c>
       <c r="F75" t="n">
-        <v>0.129546902689953</v>
+        <v>0.1302231656669674</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03056868389944074</v>
+        <v>0.02547081647051029</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4492837494.957438</v>
+        <v>4672775090.173438</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09251089532133733</v>
+        <v>0.0911463198528541</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03133345497505721</v>
+        <v>0.03394268364588162</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2116920692.492811</v>
+        <v>1614303687.391237</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1485060967186957</v>
+        <v>0.1764787594241758</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03131135123968098</v>
+        <v>0.02632568418223172</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3268973808.97867</v>
+        <v>3912563871.241838</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1089701245772033</v>
+        <v>0.09429962177159788</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05558763786844913</v>
+        <v>0.03926547928976083</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1229232200.858751</v>
+        <v>1887581216.774168</v>
       </c>
       <c r="F79" t="n">
-        <v>0.113622022422444</v>
+        <v>0.1675774869144466</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03517856713460865</v>
+        <v>0.03764873340194467</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5543422672.338651</v>
+        <v>5294603910.915895</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07559869660211066</v>
+        <v>0.09974104420159063</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02607711831682785</v>
+        <v>0.02813757121858034</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4762444201.013878</v>
+        <v>5189454093.618885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1310516555706825</v>
+        <v>0.1238424335817495</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02257054893418119</v>
+        <v>0.02792611785761633</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4835945749.191554</v>
+        <v>3928950274.407052</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1451345536341641</v>
+        <v>0.2062982005435082</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01842422575078409</v>
+        <v>0.02881003774452588</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2249489254.633185</v>
+        <v>1781046081.125836</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1315586891786378</v>
+        <v>0.1048011466072591</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02879357372635175</v>
+        <v>0.04123009848202175</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1566963400.492573</v>
+        <v>2039073956.042033</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09862346482671898</v>
+        <v>0.1178973279377232</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03205949873487821</v>
+        <v>0.03352670951699393</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2687394089.604121</v>
+        <v>2841516241.133475</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1302380120727555</v>
+        <v>0.1318636287777043</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04014080910991838</v>
+        <v>0.05568226747877193</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1849986829.249845</v>
+        <v>2407554279.835146</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1158548815496112</v>
+        <v>0.1633398391433002</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02404557778915761</v>
+        <v>0.02570505082373898</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1217948046.123543</v>
+        <v>990646325.1438379</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1625395756105339</v>
+        <v>0.1520449414936841</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03591745677662037</v>
+        <v>0.02744339167323034</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3069781607.566186</v>
+        <v>3186704223.91003</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1320358791423131</v>
+        <v>0.1423607762241782</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03778800962238801</v>
+        <v>0.03911902321108397</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3083190046.086143</v>
+        <v>2995220615.538788</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1186039777095788</v>
+        <v>0.1383723038562892</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02710318882085339</v>
+        <v>0.03289528552042296</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1923407809.087603</v>
+        <v>1426876739.483219</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1328410362361144</v>
+        <v>0.08574032168034006</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03905455819749351</v>
+        <v>0.05474510160504665</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1365844771.148401</v>
+        <v>1306358424.65355</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1472141138323832</v>
+        <v>0.151500458870927</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05443505708115191</v>
+        <v>0.03905150913737786</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2619015733.046821</v>
+        <v>2676849940.912851</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09919383207257475</v>
+        <v>0.09162710290285979</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04739156640276061</v>
+        <v>0.03623406328475263</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3145965565.101414</v>
+        <v>4578064566.899489</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1093923309990052</v>
+        <v>0.1323996892820854</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05482377695996236</v>
+        <v>0.04437415819558523</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1937078503.750014</v>
+        <v>2409156392.305106</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1342342674616987</v>
+        <v>0.1209240091880227</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04218264220138999</v>
+        <v>0.03252826297645244</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2254766209.985212</v>
+        <v>2809074441.539392</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1126982933879126</v>
+        <v>0.121892472958031</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03372823876577579</v>
+        <v>0.04547469549458023</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1494476059.969418</v>
+        <v>1950272694.073407</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1399614784339356</v>
+        <v>0.1183530861805604</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03051597708916269</v>
+        <v>0.03627502342194396</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4378412633.454314</v>
+        <v>3557644911.305149</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1331196856060622</v>
+        <v>0.1395484795522664</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02132207154518223</v>
+        <v>0.02599840122581538</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3349350655.636414</v>
+        <v>3897250409.492431</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1195494802041437</v>
+        <v>0.1013035785354169</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02398250715505431</v>
+        <v>0.02998218820712999</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2404449629.000287</v>
+        <v>2204176705.554691</v>
       </c>
       <c r="F99" t="n">
-        <v>0.128398138664666</v>
+        <v>0.1126686957437396</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02578680506122485</v>
+        <v>0.02491143350960513</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4428792069.112938</v>
+        <v>3504041164.219203</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1242011926602638</v>
+        <v>0.1432566685530842</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02480211849857874</v>
+        <v>0.01713106163052148</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2318460062.092122</v>
+        <v>2276839950.344523</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1941340975133333</v>
+        <v>0.1715853070675316</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05487631341154593</v>
+        <v>0.04601041444159379</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_381.xlsx
+++ b/output/fit_clients/fit_round_381.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2051677843.133572</v>
+        <v>1900540952.624163</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08941469628377141</v>
+        <v>0.08160040929219628</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04465305085487728</v>
+        <v>0.03002044990013967</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1884302490.618477</v>
+        <v>2037395382.628853</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1677205024566472</v>
+        <v>0.146480328265254</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04647909075045144</v>
+        <v>0.04652157372422159</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4902013019.399769</v>
+        <v>3336637707.695905</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1576301755902501</v>
+        <v>0.1094088741570594</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03029640932978026</v>
+        <v>0.02427065499195232</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>195</v>
+      </c>
+      <c r="J4" t="n">
+        <v>380</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44.70953461437647</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2821371248.776939</v>
+        <v>3934439072.531403</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07848602297942871</v>
+        <v>0.09474971349146254</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03575507387853865</v>
+        <v>0.03099938570217727</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>152</v>
+      </c>
+      <c r="J5" t="n">
+        <v>381</v>
+      </c>
+      <c r="K5" t="n">
+        <v>71.2694007955712</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1815473251.885128</v>
+        <v>2581140328.571647</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1429237815288574</v>
+        <v>0.128357371613007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04865808873290793</v>
+        <v>0.03864162573482696</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2232617908.752972</v>
+        <v>2535365968.155629</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0897434008790516</v>
+        <v>0.08649605487155905</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04394767058928983</v>
+        <v>0.04036605409239218</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2950261216.729488</v>
+        <v>3546908992.206257</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1907643641824109</v>
+        <v>0.1821498631099273</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03280892743167062</v>
+        <v>0.02575946439965502</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>101</v>
+      </c>
+      <c r="J8" t="n">
+        <v>381</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1710768715.068429</v>
+        <v>1652649076.226615</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1419236244435076</v>
+        <v>0.1824533095386575</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02806364716602824</v>
+        <v>0.02381902977716385</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4782275992.415112</v>
+        <v>5423429164.141602</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2103134747075151</v>
+        <v>0.1353803367658622</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04603111924286155</v>
+        <v>0.0519863323019213</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J10" t="n">
+        <v>381</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3216441752.957932</v>
+        <v>2718201002.291553</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1638209658354065</v>
+        <v>0.117513972943409</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04789365363292372</v>
+        <v>0.03376044464261739</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>160</v>
+      </c>
+      <c r="J11" t="n">
+        <v>378</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2351491669.79182</v>
+        <v>3009277044.659884</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1525337830713469</v>
+        <v>0.1444511578704192</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03900748102336355</v>
+        <v>0.05246546252462225</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3477440430.882254</v>
+        <v>3644677036.097013</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08287274606147448</v>
+        <v>0.09472997905705668</v>
       </c>
       <c r="G13" t="n">
-        <v>0.021654737174206</v>
+        <v>0.01969695471826827</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>197</v>
+      </c>
+      <c r="J13" t="n">
+        <v>381</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2383912811.942924</v>
+        <v>3670922778.605968</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1358046749270977</v>
+        <v>0.145718195242272</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04290363381346657</v>
+        <v>0.04236916684058567</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>78</v>
+      </c>
+      <c r="J14" t="n">
+        <v>381</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1145737373.983426</v>
+        <v>1538617830.895387</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06843934151807278</v>
+        <v>0.1072734360718078</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04427230610634656</v>
+        <v>0.04843919547168857</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1917417796.600887</v>
+        <v>1940579436.842473</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1065832026964569</v>
+        <v>0.1034453350568337</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04615879392781358</v>
+        <v>0.03114707746831048</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3659595482.145528</v>
+        <v>4223641582.495286</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1548357602977467</v>
+        <v>0.1111477537474343</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03238555929154714</v>
+        <v>0.04086627113997755</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>181</v>
+      </c>
+      <c r="J17" t="n">
+        <v>381</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2523866376.255549</v>
+        <v>2870394915.253324</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1683960966566715</v>
+        <v>0.1608275155215285</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03024537417573483</v>
+        <v>0.02231270268023323</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>93</v>
+      </c>
+      <c r="J18" t="n">
+        <v>378</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1197698584.915854</v>
+        <v>875900060.0221634</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1328022916436742</v>
+        <v>0.1332199577043728</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01708015006727722</v>
+        <v>0.02616948407726588</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1947476198.942195</v>
+        <v>2391767583.387208</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1439166407514209</v>
+        <v>0.1084472016372416</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02649084818311125</v>
+        <v>0.02056572623538245</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1170,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1760887472.752497</v>
+        <v>2643623774.006057</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08669113897760501</v>
+        <v>0.0959181333937623</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04521155559773483</v>
+        <v>0.0387954607476385</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1205,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3244906319.415213</v>
+        <v>2521757488.576109</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08921726620045937</v>
+        <v>0.1229418354741387</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04709510842770071</v>
+        <v>0.03606718559410894</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>107</v>
+      </c>
+      <c r="J22" t="n">
+        <v>379</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1230092506.770653</v>
+        <v>1232551143.339905</v>
       </c>
       <c r="F23" t="n">
-        <v>0.182943399697386</v>
+        <v>0.1438804746301831</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05411085868924894</v>
+        <v>0.04733229387754381</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1269,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2610026985.133075</v>
+        <v>3970780157.167085</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1354585860451227</v>
+        <v>0.142757782081289</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02432566256423598</v>
+        <v>0.02585326445814021</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>118</v>
+      </c>
+      <c r="J24" t="n">
+        <v>381</v>
+      </c>
+      <c r="K24" t="n">
+        <v>55.68819131835836</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1271267977.189879</v>
+        <v>1272580836.557832</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07827081769397881</v>
+        <v>0.07461229382317136</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02300178679648919</v>
+        <v>0.02157796244731515</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1038841608.140554</v>
+        <v>1200782394.807031</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1002383461334407</v>
+        <v>0.1185083015709411</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03296633371902854</v>
+        <v>0.02488687899469386</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1382,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3137204704.963052</v>
+        <v>2955249109.962114</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09928051430190567</v>
+        <v>0.1366766927390705</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0213862492385764</v>
+        <v>0.02273840953253957</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>158</v>
+      </c>
+      <c r="J27" t="n">
+        <v>379</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3076905351.135962</v>
+        <v>3116606529.871414</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1520067389489473</v>
+        <v>0.1303326149864052</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04273237777443895</v>
+        <v>0.03982336057236194</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>89</v>
+      </c>
+      <c r="J28" t="n">
+        <v>377</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4287761643.314311</v>
+        <v>4791911336.674513</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1221775701819132</v>
+        <v>0.09924113650239835</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04383406208824593</v>
+        <v>0.02862430057613924</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>329</v>
+      </c>
+      <c r="J29" t="n">
+        <v>380</v>
+      </c>
+      <c r="K29" t="n">
+        <v>52.78806313232897</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1489,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2179306192.276126</v>
+        <v>2115615007.156867</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08458340534172137</v>
+        <v>0.1127261746497783</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0333192508972887</v>
+        <v>0.03582008928091268</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1351749534.384173</v>
+        <v>969473096.2948024</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07694605564117056</v>
+        <v>0.1049855326090633</v>
       </c>
       <c r="G31" t="n">
-        <v>0.048569498216869</v>
+        <v>0.0489915465003161</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1559,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1374114190.353798</v>
+        <v>1900341388.09482</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1026423582296205</v>
+        <v>0.1025915041244821</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03572869497116404</v>
+        <v>0.02572391540423831</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2290290147.37755</v>
+        <v>2316040082.436303</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1322057695930194</v>
+        <v>0.1270368368711863</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05622703242892807</v>
+        <v>0.04510808703496901</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1349958156.93196</v>
+        <v>1419300670.440528</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07953292220109602</v>
+        <v>0.08042979059373317</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02250833154162644</v>
+        <v>0.0183141751219819</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1664,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1232107983.932842</v>
+        <v>1232470942.223284</v>
       </c>
       <c r="F35" t="n">
-        <v>0.101204935585185</v>
+        <v>0.07488911260599417</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0346171087413971</v>
+        <v>0.03551625074953575</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2808669948.925546</v>
+        <v>2934858999.439756</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1717081600873014</v>
+        <v>0.1208554239339099</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02836273173395239</v>
+        <v>0.02210140900920898</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2878305422.599355</v>
+        <v>2834386649.644412</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08546689460111674</v>
+        <v>0.09546636338541979</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03487263951031095</v>
+        <v>0.04118870522222185</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1624193310.914684</v>
+        <v>1469711071.030764</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09413498044237444</v>
+        <v>0.0861406074778979</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02708817228444202</v>
+        <v>0.02754669020375471</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1623641102.116786</v>
+        <v>1927607226.270507</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1657110355990381</v>
+        <v>0.1723940996715684</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02253461126875713</v>
+        <v>0.02846964308879497</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1719435535.686057</v>
+        <v>1569148169.191585</v>
       </c>
       <c r="F40" t="n">
-        <v>0.132295393093165</v>
+        <v>0.1091915002323813</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0515240296830637</v>
+        <v>0.03936299906587255</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2312468306.210624</v>
+        <v>2772068530.752501</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1401157586443972</v>
+        <v>0.1437815655300212</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03402442552797598</v>
+        <v>0.04292184085355331</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3163585465.01814</v>
+        <v>2916592394.289193</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1105026967877329</v>
+        <v>0.09960079063655475</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04225471892691575</v>
+        <v>0.0427027272407312</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>167</v>
+      </c>
+      <c r="J42" t="n">
+        <v>379</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1944,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2281539224.106477</v>
+        <v>2634126910.671478</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1246595477224507</v>
+        <v>0.1500296758277122</v>
       </c>
       <c r="G43" t="n">
-        <v>0.023098675978917</v>
+        <v>0.01731321618005373</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2111694334.144602</v>
+        <v>1788024559.056472</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08295217336644985</v>
+        <v>0.07648659287171027</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03547497499016055</v>
+        <v>0.02490935590089035</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1846048525.742301</v>
+        <v>2390919644.23489</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1581413817422542</v>
+        <v>0.1653466298510972</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05607146179104233</v>
+        <v>0.05180246737433478</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2049,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5333671764.874438</v>
+        <v>5349071617.489916</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1158909303047734</v>
+        <v>0.1614130743766498</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04049226538947376</v>
+        <v>0.04321959620892669</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>228</v>
+      </c>
+      <c r="J46" t="n">
+        <v>381</v>
+      </c>
+      <c r="K46" t="n">
+        <v>53.86175538511338</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4122210883.219732</v>
+        <v>3341308566.369747</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2012114415294418</v>
+        <v>0.1950162075531303</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04042681167828304</v>
+        <v>0.03910989143409779</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>170</v>
+      </c>
+      <c r="J47" t="n">
+        <v>381</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2121,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4381347284.254922</v>
+        <v>4099106614.058745</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08683917462670579</v>
+        <v>0.1057258860425398</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03260820073643132</v>
+        <v>0.03674654738091182</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>197</v>
+      </c>
+      <c r="J48" t="n">
+        <v>381</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1355238422.801097</v>
+        <v>1790947897.703509</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1261446349029484</v>
+        <v>0.1338092690923107</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03072732291844713</v>
+        <v>0.0415323357618334</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2185,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2736767794.739964</v>
+        <v>3474644694.814613</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1125862800642458</v>
+        <v>0.1551577190322602</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05111185289782137</v>
+        <v>0.03906574548147702</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>130</v>
+      </c>
+      <c r="J50" t="n">
+        <v>381</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2220,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1455725658.29788</v>
+        <v>1491865280.950055</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1391285602879152</v>
+        <v>0.1811362604358137</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04516198230625041</v>
+        <v>0.0444775604669057</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2261,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3583512823.138733</v>
+        <v>4779839287.278715</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1102297996327659</v>
+        <v>0.09646425848354465</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03743413826226848</v>
+        <v>0.05589538730404877</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>223</v>
+      </c>
+      <c r="J52" t="n">
+        <v>381</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,16 +2296,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3590479349.89887</v>
+        <v>2569529927.354681</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1561680686195621</v>
+        <v>0.1301228328851425</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02333983445402053</v>
+        <v>0.02423959338842269</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>53</v>
+      </c>
+      <c r="J53" t="n">
+        <v>380</v>
+      </c>
+      <c r="K53" t="n">
+        <v>37.32367972493175</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2327,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4389667923.499829</v>
+        <v>3266488466.022673</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1495109401355921</v>
+        <v>0.1099546033137757</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03297170601878323</v>
+        <v>0.0353140746930096</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>203</v>
+      </c>
+      <c r="J54" t="n">
+        <v>380</v>
+      </c>
+      <c r="K54" t="n">
+        <v>42.65389150791693</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2370,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3840598541.026863</v>
+        <v>3057705815.161953</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1988655529495345</v>
+        <v>0.1362935092403669</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03130776117411565</v>
+        <v>0.03026232545112465</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>184</v>
+      </c>
+      <c r="J55" t="n">
+        <v>380</v>
+      </c>
+      <c r="K55" t="n">
+        <v>39.6552087517796</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1673819193.44832</v>
+        <v>1454274503.15915</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1571065741603358</v>
+        <v>0.1362261828256739</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04766661852679378</v>
+        <v>0.05390976652088896</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2442,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3069481151.718625</v>
+        <v>3052638388.829799</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1749402900464266</v>
+        <v>0.1148916531255026</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02432245663034991</v>
+        <v>0.0200121160813643</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>161</v>
+      </c>
+      <c r="J57" t="n">
+        <v>380</v>
+      </c>
+      <c r="K57" t="n">
+        <v>39.65238141849986</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1833381306.397139</v>
+        <v>1426217420.87348</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1250940777387351</v>
+        <v>0.1887605708110672</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03229250169033798</v>
+        <v>0.032227630666543</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5215033403.941788</v>
+        <v>3373869755.867004</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1198168120167536</v>
+        <v>0.1228067858529812</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04855095490945316</v>
+        <v>0.0447549262493222</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>185</v>
+      </c>
+      <c r="J59" t="n">
+        <v>380</v>
+      </c>
+      <c r="K59" t="n">
+        <v>45.31174750438507</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3680754001.13847</v>
+        <v>3108187814.298699</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1590957725948879</v>
+        <v>0.1282834535677634</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03192283418937005</v>
+        <v>0.02254922379173436</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>71</v>
+      </c>
+      <c r="J60" t="n">
+        <v>379</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2991150995.396476</v>
+        <v>2555285873.191079</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1703246514009421</v>
+        <v>0.1227050318823577</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02906255739000551</v>
+        <v>0.03044117653555601</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1595139515.741148</v>
+        <v>1866962012.844403</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1390385133737579</v>
+        <v>0.1828070469418873</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03448187033878011</v>
+        <v>0.04792323653771836</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2656,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4094275673.017295</v>
+        <v>3790548876.206334</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06594641572035741</v>
+        <v>0.06770851756248784</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04366125315578587</v>
+        <v>0.04606069662589227</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>189</v>
+      </c>
+      <c r="J63" t="n">
+        <v>380</v>
+      </c>
+      <c r="K63" t="n">
+        <v>52.59223551045663</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2693,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4692510251.555693</v>
+        <v>5411409642.917007</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1683213758302248</v>
+        <v>0.1486515981761825</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03244739064267723</v>
+        <v>0.0338815197051807</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>189</v>
+      </c>
+      <c r="J64" t="n">
+        <v>381</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2728,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5373595655.027728</v>
+        <v>5606064380.314124</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1357253467083269</v>
+        <v>0.1248274899924335</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02607326269363989</v>
+        <v>0.02860891097436114</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>286</v>
+      </c>
+      <c r="J65" t="n">
+        <v>380</v>
+      </c>
+      <c r="K65" t="n">
+        <v>52.24402650032508</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5670106004.698403</v>
+        <v>5087516398.792981</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1622960538011673</v>
+        <v>0.145250418483059</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03902454140036223</v>
+        <v>0.04377221013066585</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>188</v>
+      </c>
+      <c r="J66" t="n">
+        <v>381</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2800,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2566471505.453175</v>
+        <v>3070799029.123046</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06778471319684219</v>
+        <v>0.0813614748180822</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03869216492145676</v>
+        <v>0.04314834746950149</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3671433725.82793</v>
+        <v>4427322398.382098</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1240523831027256</v>
+        <v>0.1389757967811968</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03776221811517885</v>
+        <v>0.05131270465980566</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>206</v>
+      </c>
+      <c r="J68" t="n">
+        <v>381</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1526557837.984008</v>
+        <v>1826815679.485369</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1186349697516332</v>
+        <v>0.1240701201598274</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05918531016156595</v>
+        <v>0.05741035427020907</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3271795496.100889</v>
+        <v>2696722300.899882</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07846860387405398</v>
+        <v>0.0892092784455048</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04803941530626227</v>
+        <v>0.0417812813430314</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4415084264.048765</v>
+        <v>5372421705.499267</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1458224913617296</v>
+        <v>0.1483403216026085</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03214338025574567</v>
+        <v>0.02232499952130662</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>272</v>
+      </c>
+      <c r="J71" t="n">
+        <v>380</v>
+      </c>
+      <c r="K71" t="n">
+        <v>52.11000942610868</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2056707178.386757</v>
+        <v>2243221413.656575</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07402711994016985</v>
+        <v>0.08373555357297201</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04849412510564401</v>
+        <v>0.04941913859714048</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3012,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2985326906.339224</v>
+        <v>3285463928.200777</v>
       </c>
       <c r="F73" t="n">
-        <v>0.106507506284368</v>
+        <v>0.1040037059237766</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03687845215476326</v>
+        <v>0.03565749002708914</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>27</v>
+      </c>
+      <c r="J73" t="n">
+        <v>381</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3041,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2710740419.394347</v>
+        <v>3289846224.129127</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1487047121861069</v>
+        <v>0.1403963108458277</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02773368660800829</v>
+        <v>0.03475256585111201</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>109</v>
+      </c>
+      <c r="J74" t="n">
+        <v>381</v>
+      </c>
+      <c r="K74" t="n">
+        <v>54.80862044600306</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1784450509.295684</v>
+        <v>2235350395.109098</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1302231656669674</v>
+        <v>0.1510547425016237</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02547081647051029</v>
+        <v>0.03039925089382575</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4672775090.173438</v>
+        <v>3925612286.710031</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0911463198528541</v>
+        <v>0.09197020743819702</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03394268364588162</v>
+        <v>0.02765469712266191</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>180</v>
+      </c>
+      <c r="J76" t="n">
+        <v>380</v>
+      </c>
+      <c r="K76" t="n">
+        <v>52.2426282312932</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1614303687.391237</v>
+        <v>1614828797.033174</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1764787594241758</v>
+        <v>0.1676537316019907</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02632568418223172</v>
+        <v>0.0266374159232864</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3191,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3912563871.241838</v>
+        <v>4414945419.003054</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09429962177159788</v>
+        <v>0.1000956479387257</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03926547928976083</v>
+        <v>0.05346331989454618</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>190</v>
+      </c>
+      <c r="J78" t="n">
+        <v>381</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1887581216.774168</v>
+        <v>1634646187.447474</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1675774869144466</v>
+        <v>0.1244323038932663</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03764873340194467</v>
+        <v>0.02954402267999216</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5294603910.915895</v>
+        <v>4652409175.827749</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09974104420159063</v>
+        <v>0.0994609955834742</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02813757121858034</v>
+        <v>0.02675693260593049</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>186</v>
+      </c>
+      <c r="J80" t="n">
+        <v>380</v>
+      </c>
+      <c r="K80" t="n">
+        <v>43.56121791403078</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5189454093.618885</v>
+        <v>3647967674.260432</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1238424335817495</v>
+        <v>0.1108222650924717</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02792611785761633</v>
+        <v>0.0251856731145596</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>177</v>
+      </c>
+      <c r="J81" t="n">
+        <v>380</v>
+      </c>
+      <c r="K81" t="n">
+        <v>50.61599383880301</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3335,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3928950274.407052</v>
+        <v>4634752537.472299</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2062982005435082</v>
+        <v>0.1947474976290334</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02881003774452588</v>
+        <v>0.02116929155660269</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>263</v>
+      </c>
+      <c r="J82" t="n">
+        <v>381</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1781046081.125836</v>
+        <v>2050117302.305825</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1048011466072591</v>
+        <v>0.1140440592546876</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04123009848202175</v>
+        <v>0.03975178928141983</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2039073956.042033</v>
+        <v>2420337944.412476</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1178973279377232</v>
+        <v>0.10555052924932</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03352670951699393</v>
+        <v>0.04030137131539363</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2841516241.133475</v>
+        <v>2743743600.071319</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1318636287777043</v>
+        <v>0.1521797434770284</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05568226747877193</v>
+        <v>0.04665760414825434</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2407554279.835146</v>
+        <v>1770741423.741193</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1633398391433002</v>
+        <v>0.1356263716987352</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02570505082373898</v>
+        <v>0.02445186115484938</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>990646325.1438379</v>
+        <v>1465059150.196224</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1520449414936841</v>
+        <v>0.1857902392768798</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02744339167323034</v>
+        <v>0.03687427908845543</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3186704223.91003</v>
+        <v>2852093271.894382</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1423607762241782</v>
+        <v>0.1243204976828116</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03911902321108397</v>
+        <v>0.03990984834649092</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>48</v>
+      </c>
+      <c r="J88" t="n">
+        <v>374</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2995220615.538788</v>
+        <v>2124598607.645837</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1383723038562892</v>
+        <v>0.1192811158227639</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03289528552042296</v>
+        <v>0.04099549973543107</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1426876739.483219</v>
+        <v>1706497439.252773</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08574032168034006</v>
+        <v>0.1058532073103695</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05474510160504665</v>
+        <v>0.03846910799954801</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3650,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1306358424.65355</v>
+        <v>1369082503.465473</v>
       </c>
       <c r="F91" t="n">
-        <v>0.151500458870927</v>
+        <v>0.144073227260828</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03905150913737786</v>
+        <v>0.05857076430459379</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2676849940.912851</v>
+        <v>2447695310.845789</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09162710290285979</v>
+        <v>0.08509711094534075</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03623406328475263</v>
+        <v>0.04044278617027102</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4578064566.899489</v>
+        <v>4852695210.69153</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1323996892820854</v>
+        <v>0.1067609540267896</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04437415819558523</v>
+        <v>0.05338121342072091</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>180</v>
+      </c>
+      <c r="J93" t="n">
+        <v>380</v>
+      </c>
+      <c r="K93" t="n">
+        <v>52.6016624141302</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2409156392.305106</v>
+        <v>2025895307.550983</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1209240091880227</v>
+        <v>0.1308098993077233</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03252826297645244</v>
+        <v>0.03512941482658996</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2809074441.539392</v>
+        <v>2466528964.501259</v>
       </c>
       <c r="F95" t="n">
-        <v>0.121892472958031</v>
+        <v>0.1237674571331305</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04547469549458023</v>
+        <v>0.04316519678652213</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1950272694.073407</v>
+        <v>2212376477.759662</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1183530861805604</v>
+        <v>0.1400615471262159</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03627502342194396</v>
+        <v>0.03875727104348047</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3557644911.305149</v>
+        <v>3504640521.511539</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1395484795522664</v>
+        <v>0.1645558356846015</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02599840122581538</v>
+        <v>0.02442091709218344</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>197</v>
+      </c>
+      <c r="J97" t="n">
+        <v>380</v>
+      </c>
+      <c r="K97" t="n">
+        <v>49.17717694736213</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3897250409.492431</v>
+        <v>2927760411.43068</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1013035785354169</v>
+        <v>0.1147988706762356</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02998218820712999</v>
+        <v>0.03009313888181527</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>97</v>
+      </c>
+      <c r="J98" t="n">
+        <v>375</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2204176705.554691</v>
+        <v>3045893418.350917</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1126686957437396</v>
+        <v>0.09359222328850796</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02491143350960513</v>
+        <v>0.02540062183525263</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3504041164.219203</v>
+        <v>3642563377.517963</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1432566685530842</v>
+        <v>0.1335957880758691</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01713106163052148</v>
+        <v>0.0244265415223922</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>175</v>
+      </c>
+      <c r="J100" t="n">
+        <v>381</v>
+      </c>
+      <c r="K100" t="n">
+        <v>54.67863263255101</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2276839950.344523</v>
+        <v>3044253195.775027</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1715853070675316</v>
+        <v>0.2199941901834471</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04601041444159379</v>
+        <v>0.05512475672443167</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>374</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
